--- a/GroceryApplication/src/test/resources/Grocery_App_Data.xlsx
+++ b/GroceryApplication/src/test/resources/Grocery_App_Data.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPageSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="AdminPageSheet" sheetId="2" r:id="rId2"/>
+    <sheet name="ManageNewsPage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>admin</t>
   </si>
@@ -36,6 +38,19 @@
   </si>
   <si>
     <t>invaliduser</t>
+  </si>
+  <si>
+    <t>Adwik</t>
+  </si>
+  <si>
+    <t>testuser123</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NewsToday
+</t>
   </si>
 </sst>
 </file>
@@ -649,8 +664,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -972,7 +990,7 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1018,4 +1036,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="7:7">
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="27.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.8" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>